--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50181058-30F2-458F-B8CA-F69EA3323A17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C36B02-149A-4E75-8661-83C7512665C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Task</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Player death and game restart</t>
+  </si>
+  <si>
+    <t>Minimap</t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B16"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,6 +635,11 @@
         <v>35</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C36B02-149A-4E75-8661-83C7512665C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBD80FE-39FF-42DE-899F-7A7D47BC82AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Task</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Minimap</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,6 +506,9 @@
       <c r="C3" t="s">
         <v>29</v>
       </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -513,6 +519,9 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -609,7 +618,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -628,6 +637,9 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBD80FE-39FF-42DE-899F-7A7D47BC82AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Task</t>
   </si>
@@ -139,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,22 +458,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="2" max="2" width="69.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.90625" customWidth="1"/>
+    <col min="2" max="2" width="69.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -496,7 +495,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -510,12 +509,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -523,7 +522,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -531,7 +530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -539,7 +538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -547,7 +546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -558,12 +557,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -571,30 +570,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -604,37 +606,49 @@
       <c r="C16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -642,12 +656,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>36</v>
       </c>
